--- a/Backend/2. C#/C#笔记.xlsx
+++ b/Backend/2. C#/C#笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janss\Desktop\Full-stack\Backend\2. C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF2E12A-C19E-4D24-B4F3-9801D7C283E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509B5C2-481A-4130-A65F-5FE8173995A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="2100" windowWidth="27000" windowHeight="13335" activeTab="6" xr2:uid="{FDF50CD9-36D8-4159-AC2D-F632DE44E8E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{FDF50CD9-36D8-4159-AC2D-F632DE44E8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="C#导航栏" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="392">
   <si>
     <t>日志和监控
 使用Serilog或NLog
@@ -1535,6 +1535,169 @@
   <si>
     <t>1. 使用泛型的场景是什么？有什么好处？理解什么是泛型</t>
   </si>
+  <si>
+    <t>Compare tradition and Generics</t>
+  </si>
+  <si>
+    <t>见CODE  1. Scenario</t>
+  </si>
+  <si>
+    <t>2. 哪些可以申明为泛型</t>
+  </si>
+  <si>
+    <t>类、结构、接口、委托、方法</t>
+  </si>
+  <si>
+    <t>3. 泛型类——了解如何声明泛型类、创建构造类型与实例、调用泛型类</t>
+  </si>
+  <si>
+    <t>a. 声明泛型类</t>
+  </si>
+  <si>
+    <t>1. 在类名之后放置一组尖括号</t>
+  </si>
+  <si>
+    <t>2. 尖括号里用占位符字符串(type parameter)来表示希望占位的类型，用逗号分割</t>
+  </si>
+  <si>
+    <t>3. 在泛型类声明的主体中使用类型参数表示应该替代的类型</t>
+  </si>
+  <si>
+    <t>b. 创建构造类型与实例</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 创建构造类型时，尖括号中提供真实类型[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型实参(type argument)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]代替类型参数</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 创建实例和类的实例化一模一样，不过我们可以通过var关键字让编译器自动识别类型引用</t>
+  </si>
+  <si>
+    <t>见 CODE ClassGenerics文件</t>
+  </si>
+  <si>
+    <r>
+      <t>与其他泛型不同，方法是成员，不是类型。泛型方法可以在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泛型和非泛型类以及结构和接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中声明</t>
+    </r>
+  </si>
+  <si>
+    <t>1. 每一个parameter有自己的where子句， 如果parameter有多个约束，它们在where子句中使用逗号分隔</t>
+  </si>
+  <si>
+    <t>2. where在类型参数列表的尖括号之后列出</t>
+  </si>
+  <si>
+    <t>3. where之间不适用逗号或者其他符号分隔</t>
+  </si>
+  <si>
+    <t>4. 为什么需要类型参数约束？语法规则如何？有哪些约束类型？约束类型声明顺序如何？</t>
+  </si>
+  <si>
+    <t>约束类型</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>interfaceName</t>
+  </si>
+  <si>
+    <t>new()</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>限制为只有这个类型的类或从它继承的类</t>
+  </si>
+  <si>
+    <t>约束为值类型</t>
+  </si>
+  <si>
+    <t>约束为引用类型</t>
+  </si>
+  <si>
+    <t>约束为只有这个接口或者实现这个接口的类型</t>
+  </si>
+  <si>
+    <t>限制为任何带有无参公共构造函数的类型</t>
+  </si>
+  <si>
+    <t>最多只能有一个约束，且必须放在第一位</t>
+  </si>
+  <si>
+    <t>任意多个接口名约束</t>
+  </si>
+  <si>
+    <t>如果有，必须放在最后面</t>
+  </si>
+  <si>
+    <t>1. 泛型方法有两个参数列表：方法参数列表和类型参数列表，且类型参数列表放置在方法名称之后，方法参数列表之前</t>
+  </si>
+  <si>
+    <t>2. 方法参数列表后放置可选的约束子句</t>
+  </si>
+  <si>
+    <t>声明泛型方法</t>
+  </si>
+  <si>
+    <t>调用泛型方法</t>
+  </si>
+  <si>
+    <t>5. 泛型方法——了解如何声明泛型方法、调用泛型方法</t>
+  </si>
+  <si>
+    <t>6. 扩展方法和泛型类</t>
+  </si>
 </sst>
 </file>
 
@@ -1657,7 +1820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1890,6 +2053,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1899,7 +2073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2074,6 +2248,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -30916,13 +31129,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -31209,13 +31422,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -31572,13 +31785,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -31888,13 +32101,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -32181,13 +32394,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -32507,13 +32720,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>398369</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>160804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>160803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -32575,13 +32788,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>136070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>508907</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -32964,13 +33177,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>610960</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33032,13 +33245,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>375958</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>138393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>138392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33100,13 +33313,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>11207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33354,13 +33567,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>2241</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>83483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33682,13 +33895,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>110940</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33878,6 +34091,1386 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B950FBC5-2776-4E71-95C5-BB75BAFBC9F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="1352550"/>
+          <a:ext cx="4676775" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class tradition</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    static public int IntAdd(int a, int b)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return a + b;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    static public double DoubleAdd(double a, double b)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return  a + b;     </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA2BDD5-8C44-4EA8-8981-40FABD241B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12039600" y="1352550"/>
+          <a:ext cx="4676775" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Generics&lt;T&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    where T:struct</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    static public T Add(T a, T b)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return (dynamic) a + b;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661617B7-FA9C-4A48-BDB2-ECDC5BF5E8B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="6486525"/>
+          <a:ext cx="4267200" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class ClassGenerics&lt;T1,T2&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public T1 name;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public T2 age;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647593FE-D346-420D-8131-69C3D34D8BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13839825" y="6334124"/>
+          <a:ext cx="4981576" cy="3143251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    static void Main()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ClassGenerics&lt;string, int&gt; a = new ClassGenerics&lt;string, int&gt;();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        var b = new ClassGenerics&lt;string, double&gt;();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        a.name = "J";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        a.age = 18;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        b.name = "X";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        b.age = 24.5;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        Console.WriteLine($"a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的名字是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a.name},a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的年龄是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a.age}");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        Console.WriteLine($"b</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的名字是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>b.name},b</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的年龄是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>b.age}");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A54C97F-09B8-4741-8428-FC752DF7B2A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="21336000"/>
+          <a:ext cx="4267200" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class FunGenerics</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public void PrintDatas&lt;T1, T2&gt;(T1 a, T2 b)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        where T1 :struct</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        where T2 :class</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        Console.WriteLine($"{a}");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        Console.WriteLine($"{b}");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26C630C-F190-4509-A451-E0E26D65D539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12696825" y="21307425"/>
+          <a:ext cx="4257675" cy="2352676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    static void Main()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        var functionA = new FunGenerics();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        functionA.PrintDatas&lt;int, int[]&gt;(10, new int[] {1,2,3});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        functionA.PrintDatas&lt;int, string&gt;(10,  "hello");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>编译器会根据输入的参数自动推断类型</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        functionA.PrintDatas(20, "helloboy");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        functionA.PrintDatas(20, new int[] { 1, 2, 4 });</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -37504,85 +39097,816 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D9CD6D-1EAA-4EE6-897F-5DE4D2098EAD}">
-  <dimension ref="I2:AI102"/>
+  <dimension ref="I2:AI199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="D99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:10">
+    <row r="2" spans="9:11">
       <c r="I2" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="9:10">
+    <row r="4" spans="9:11">
       <c r="J4" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="9:30">
-      <c r="I43" s="8" t="s">
+    <row r="6" spans="9:11">
+      <c r="K6" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="10:23">
+      <c r="K21" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="10:23">
+      <c r="J23" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="10:23">
+      <c r="K25" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="10:23">
+      <c r="J27" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="10:23">
+      <c r="V28" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="10:23">
+      <c r="K29" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="10:23">
+      <c r="W30" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="10:23">
+      <c r="L31" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="10:23">
+      <c r="L32" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12">
+      <c r="L33" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12">
+      <c r="K42" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="10:12">
+      <c r="J46" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="10:12">
+      <c r="K48" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="11:23">
+      <c r="K50" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="11:23">
+      <c r="K52" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="11:23">
+      <c r="K55" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="11:23">
+      <c r="L57" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="M57" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="N57" s="64"/>
+      <c r="O57" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="V57" s="70"/>
+      <c r="W57" s="70"/>
+    </row>
+    <row r="58" spans="11:23">
+      <c r="L58" s="61"/>
+      <c r="M58" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="N58" s="58"/>
+      <c r="O58" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="70"/>
+    </row>
+    <row r="59" spans="11:23">
+      <c r="L59" s="61"/>
+      <c r="M59" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="N59" s="66"/>
+      <c r="O59" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="70"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="70"/>
+    </row>
+    <row r="60" spans="11:23">
+      <c r="L60" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="M60" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="N60" s="62"/>
+      <c r="O60" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="V60" s="59"/>
+      <c r="W60" s="59"/>
+    </row>
+    <row r="61" spans="11:23">
+      <c r="L61" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="M61" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+    </row>
+    <row r="62" spans="11:23">
+      <c r="L62" s="71"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="67"/>
+      <c r="V62" s="67"/>
+      <c r="W62" s="67"/>
+    </row>
+    <row r="63" spans="11:23">
+      <c r="L63" s="71"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+    </row>
+    <row r="64" spans="11:23">
+      <c r="L64" s="71"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="67"/>
+    </row>
+    <row r="65" spans="12:23">
+      <c r="L65" s="71"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="67"/>
+    </row>
+    <row r="66" spans="12:23">
+      <c r="L66" s="71"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="67"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="67"/>
+      <c r="T66" s="67"/>
+      <c r="U66" s="67"/>
+      <c r="V66" s="67"/>
+      <c r="W66" s="67"/>
+    </row>
+    <row r="67" spans="12:23">
+      <c r="L67" s="71"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="67"/>
+      <c r="Q67" s="67"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="67"/>
+      <c r="T67" s="67"/>
+      <c r="U67" s="67"/>
+      <c r="V67" s="67"/>
+      <c r="W67" s="67"/>
+    </row>
+    <row r="68" spans="12:23">
+      <c r="L68" s="71"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="67"/>
+      <c r="O68" s="67"/>
+      <c r="P68" s="67"/>
+      <c r="Q68" s="67"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="67"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="67"/>
+      <c r="V68" s="67"/>
+      <c r="W68" s="67"/>
+    </row>
+    <row r="69" spans="12:23">
+      <c r="L69" s="71"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
+      <c r="O69" s="67"/>
+      <c r="P69" s="67"/>
+      <c r="Q69" s="67"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="67"/>
+      <c r="U69" s="67"/>
+      <c r="V69" s="67"/>
+      <c r="W69" s="67"/>
+    </row>
+    <row r="70" spans="12:23">
+      <c r="L70" s="71"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
+      <c r="O70" s="67"/>
+      <c r="P70" s="67"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
+      <c r="V70" s="67"/>
+      <c r="W70" s="67"/>
+    </row>
+    <row r="71" spans="12:23">
+      <c r="L71" s="71"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="67"/>
+      <c r="O71" s="67"/>
+      <c r="P71" s="67"/>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="67"/>
+      <c r="U71" s="67"/>
+      <c r="V71" s="67"/>
+      <c r="W71" s="67"/>
+    </row>
+    <row r="72" spans="12:23">
+      <c r="L72" s="71"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="67"/>
+      <c r="O72" s="67"/>
+      <c r="P72" s="67"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="67"/>
+      <c r="S72" s="67"/>
+      <c r="T72" s="67"/>
+      <c r="U72" s="67"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="67"/>
+    </row>
+    <row r="73" spans="12:23">
+      <c r="L73" s="71"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="67"/>
+      <c r="O73" s="67"/>
+      <c r="P73" s="67"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="67"/>
+      <c r="S73" s="67"/>
+      <c r="T73" s="67"/>
+      <c r="U73" s="67"/>
+      <c r="V73" s="67"/>
+      <c r="W73" s="67"/>
+    </row>
+    <row r="74" spans="12:23">
+      <c r="L74" s="71"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="67"/>
+      <c r="P74" s="67"/>
+      <c r="Q74" s="67"/>
+      <c r="R74" s="67"/>
+      <c r="S74" s="67"/>
+      <c r="T74" s="67"/>
+      <c r="U74" s="67"/>
+      <c r="V74" s="67"/>
+      <c r="W74" s="67"/>
+    </row>
+    <row r="75" spans="12:23">
+      <c r="L75" s="71"/>
+      <c r="M75" s="67"/>
+      <c r="N75" s="67"/>
+      <c r="O75" s="67"/>
+      <c r="P75" s="67"/>
+      <c r="Q75" s="67"/>
+      <c r="R75" s="67"/>
+      <c r="S75" s="67"/>
+      <c r="T75" s="67"/>
+      <c r="U75" s="67"/>
+      <c r="V75" s="67"/>
+      <c r="W75" s="67"/>
+    </row>
+    <row r="76" spans="12:23">
+      <c r="L76" s="71"/>
+      <c r="M76" s="67"/>
+      <c r="N76" s="67"/>
+      <c r="O76" s="67"/>
+      <c r="P76" s="67"/>
+      <c r="Q76" s="67"/>
+      <c r="R76" s="67"/>
+      <c r="S76" s="67"/>
+      <c r="T76" s="67"/>
+      <c r="U76" s="67"/>
+      <c r="V76" s="67"/>
+      <c r="W76" s="67"/>
+    </row>
+    <row r="77" spans="12:23">
+      <c r="L77" s="71"/>
+      <c r="M77" s="67"/>
+      <c r="N77" s="67"/>
+      <c r="O77" s="67"/>
+      <c r="P77" s="67"/>
+      <c r="Q77" s="67"/>
+      <c r="R77" s="67"/>
+      <c r="S77" s="67"/>
+      <c r="T77" s="67"/>
+      <c r="U77" s="67"/>
+      <c r="V77" s="67"/>
+      <c r="W77" s="67"/>
+    </row>
+    <row r="78" spans="12:23">
+      <c r="L78" s="71"/>
+      <c r="M78" s="67"/>
+      <c r="N78" s="67"/>
+      <c r="O78" s="67"/>
+      <c r="P78" s="67"/>
+      <c r="Q78" s="67"/>
+      <c r="R78" s="67"/>
+      <c r="S78" s="67"/>
+      <c r="T78" s="67"/>
+      <c r="U78" s="67"/>
+      <c r="V78" s="67"/>
+      <c r="W78" s="67"/>
+    </row>
+    <row r="79" spans="12:23">
+      <c r="L79" s="71"/>
+      <c r="M79" s="67"/>
+      <c r="N79" s="67"/>
+      <c r="O79" s="67"/>
+      <c r="P79" s="67"/>
+      <c r="Q79" s="67"/>
+      <c r="R79" s="67"/>
+      <c r="S79" s="67"/>
+      <c r="T79" s="67"/>
+      <c r="U79" s="67"/>
+      <c r="V79" s="67"/>
+      <c r="W79" s="67"/>
+    </row>
+    <row r="80" spans="12:23">
+      <c r="L80" s="71"/>
+      <c r="M80" s="67"/>
+      <c r="N80" s="67"/>
+      <c r="O80" s="67"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="67"/>
+      <c r="R80" s="67"/>
+      <c r="S80" s="67"/>
+      <c r="T80" s="67"/>
+      <c r="U80" s="67"/>
+      <c r="V80" s="67"/>
+      <c r="W80" s="67"/>
+    </row>
+    <row r="81" spans="12:23">
+      <c r="L81" s="71"/>
+      <c r="M81" s="67"/>
+      <c r="N81" s="67"/>
+      <c r="O81" s="67"/>
+      <c r="P81" s="67"/>
+      <c r="Q81" s="67"/>
+      <c r="R81" s="67"/>
+      <c r="S81" s="67"/>
+      <c r="T81" s="67"/>
+      <c r="U81" s="67"/>
+      <c r="V81" s="67"/>
+      <c r="W81" s="67"/>
+    </row>
+    <row r="82" spans="12:23">
+      <c r="L82" s="71"/>
+      <c r="M82" s="67"/>
+      <c r="N82" s="67"/>
+      <c r="O82" s="67"/>
+      <c r="P82" s="67"/>
+      <c r="Q82" s="67"/>
+      <c r="R82" s="67"/>
+      <c r="S82" s="67"/>
+      <c r="T82" s="67"/>
+      <c r="U82" s="67"/>
+      <c r="V82" s="67"/>
+      <c r="W82" s="67"/>
+    </row>
+    <row r="83" spans="12:23">
+      <c r="L83" s="71"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
+      <c r="Q83" s="67"/>
+      <c r="R83" s="67"/>
+      <c r="S83" s="67"/>
+      <c r="T83" s="67"/>
+      <c r="U83" s="67"/>
+      <c r="V83" s="67"/>
+      <c r="W83" s="67"/>
+    </row>
+    <row r="84" spans="12:23">
+      <c r="L84" s="71"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
+      <c r="P84" s="67"/>
+      <c r="Q84" s="67"/>
+      <c r="R84" s="67"/>
+      <c r="S84" s="67"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="67"/>
+      <c r="V84" s="67"/>
+      <c r="W84" s="67"/>
+    </row>
+    <row r="85" spans="12:23">
+      <c r="L85" s="71"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
+      <c r="O85" s="67"/>
+      <c r="P85" s="67"/>
+      <c r="Q85" s="67"/>
+      <c r="R85" s="67"/>
+      <c r="S85" s="67"/>
+      <c r="T85" s="67"/>
+      <c r="U85" s="67"/>
+      <c r="V85" s="67"/>
+      <c r="W85" s="67"/>
+    </row>
+    <row r="86" spans="12:23">
+      <c r="L86" s="71"/>
+      <c r="M86" s="67"/>
+      <c r="N86" s="67"/>
+      <c r="O86" s="67"/>
+      <c r="P86" s="67"/>
+      <c r="Q86" s="67"/>
+      <c r="R86" s="67"/>
+      <c r="S86" s="67"/>
+      <c r="T86" s="67"/>
+      <c r="U86" s="67"/>
+      <c r="V86" s="67"/>
+      <c r="W86" s="67"/>
+    </row>
+    <row r="87" spans="12:23">
+      <c r="L87" s="71"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="67"/>
+      <c r="O87" s="67"/>
+      <c r="P87" s="67"/>
+      <c r="Q87" s="67"/>
+      <c r="R87" s="67"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="67"/>
+      <c r="U87" s="67"/>
+      <c r="V87" s="67"/>
+      <c r="W87" s="67"/>
+    </row>
+    <row r="88" spans="12:23">
+      <c r="L88" s="71"/>
+      <c r="M88" s="67"/>
+      <c r="N88" s="67"/>
+      <c r="O88" s="67"/>
+      <c r="P88" s="67"/>
+      <c r="Q88" s="67"/>
+      <c r="R88" s="67"/>
+      <c r="S88" s="67"/>
+      <c r="T88" s="67"/>
+      <c r="U88" s="67"/>
+      <c r="V88" s="67"/>
+      <c r="W88" s="67"/>
+    </row>
+    <row r="89" spans="12:23">
+      <c r="L89" s="71"/>
+      <c r="M89" s="67"/>
+      <c r="N89" s="67"/>
+      <c r="O89" s="67"/>
+      <c r="P89" s="67"/>
+      <c r="Q89" s="67"/>
+      <c r="R89" s="67"/>
+      <c r="S89" s="67"/>
+      <c r="T89" s="67"/>
+      <c r="U89" s="67"/>
+      <c r="V89" s="67"/>
+      <c r="W89" s="67"/>
+    </row>
+    <row r="90" spans="12:23">
+      <c r="L90" s="71"/>
+      <c r="M90" s="67"/>
+      <c r="N90" s="67"/>
+      <c r="O90" s="67"/>
+      <c r="P90" s="67"/>
+      <c r="Q90" s="67"/>
+      <c r="R90" s="67"/>
+      <c r="S90" s="67"/>
+      <c r="T90" s="67"/>
+      <c r="U90" s="67"/>
+      <c r="V90" s="67"/>
+      <c r="W90" s="67"/>
+    </row>
+    <row r="91" spans="12:23">
+      <c r="L91" s="71"/>
+      <c r="M91" s="67"/>
+      <c r="N91" s="67"/>
+      <c r="O91" s="67"/>
+      <c r="P91" s="67"/>
+      <c r="Q91" s="67"/>
+      <c r="R91" s="67"/>
+      <c r="S91" s="67"/>
+      <c r="T91" s="67"/>
+      <c r="U91" s="67"/>
+      <c r="V91" s="67"/>
+      <c r="W91" s="67"/>
+    </row>
+    <row r="92" spans="12:23">
+      <c r="L92" s="71"/>
+      <c r="M92" s="67"/>
+      <c r="N92" s="67"/>
+      <c r="O92" s="67"/>
+      <c r="P92" s="67"/>
+      <c r="Q92" s="67"/>
+      <c r="R92" s="67"/>
+      <c r="S92" s="67"/>
+      <c r="T92" s="67"/>
+      <c r="U92" s="67"/>
+      <c r="V92" s="67"/>
+      <c r="W92" s="67"/>
+    </row>
+    <row r="93" spans="12:23">
+      <c r="L93" s="71"/>
+      <c r="M93" s="67"/>
+      <c r="N93" s="67"/>
+      <c r="O93" s="67"/>
+      <c r="P93" s="67"/>
+      <c r="Q93" s="67"/>
+      <c r="R93" s="67"/>
+      <c r="S93" s="67"/>
+      <c r="T93" s="67"/>
+      <c r="U93" s="67"/>
+      <c r="V93" s="67"/>
+      <c r="W93" s="67"/>
+    </row>
+    <row r="94" spans="12:23">
+      <c r="L94" s="71"/>
+      <c r="M94" s="67"/>
+      <c r="N94" s="67"/>
+      <c r="O94" s="67"/>
+      <c r="P94" s="67"/>
+      <c r="Q94" s="67"/>
+      <c r="R94" s="67"/>
+      <c r="S94" s="67"/>
+      <c r="T94" s="67"/>
+      <c r="U94" s="67"/>
+      <c r="V94" s="67"/>
+      <c r="W94" s="67"/>
+    </row>
+    <row r="95" spans="12:23">
+      <c r="L95" s="71"/>
+      <c r="M95" s="67"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="67"/>
+      <c r="P95" s="67"/>
+      <c r="Q95" s="67"/>
+      <c r="R95" s="67"/>
+      <c r="S95" s="67"/>
+      <c r="T95" s="67"/>
+      <c r="U95" s="67"/>
+      <c r="V95" s="67"/>
+      <c r="W95" s="67"/>
+    </row>
+    <row r="96" spans="12:23">
+      <c r="L96" s="71"/>
+      <c r="M96" s="67"/>
+      <c r="N96" s="67"/>
+      <c r="O96" s="67"/>
+      <c r="P96" s="67"/>
+      <c r="Q96" s="67"/>
+      <c r="R96" s="67"/>
+      <c r="S96" s="67"/>
+      <c r="T96" s="67"/>
+      <c r="U96" s="67"/>
+      <c r="V96" s="67"/>
+      <c r="W96" s="67"/>
+    </row>
+    <row r="102" spans="10:21">
+      <c r="J102" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="10:21">
+      <c r="K104" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="10:21">
+      <c r="K106" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="108" spans="10:21">
+      <c r="K108" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111" spans="10:21">
+      <c r="K111" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="140" spans="9:10">
+      <c r="I140" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="9:30">
-      <c r="J45" s="1" t="s">
+    <row r="142" spans="9:10">
+      <c r="J142" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="47" spans="9:30">
-      <c r="J47" s="2" t="s">
+    <row r="144" spans="9:10">
+      <c r="J144" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="9:30">
-      <c r="K48" s="1" t="s">
+    <row r="145" spans="11:30">
+      <c r="K145" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AD48" s="1" t="s">
+      <c r="AD145" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="10:30">
-      <c r="J68" s="2" t="s">
+    <row r="165" spans="10:30">
+      <c r="J165" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="10:30">
-      <c r="K71" s="1" t="s">
+    <row r="168" spans="10:30">
+      <c r="K168" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AD71" s="1" t="s">
+      <c r="AD168" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="14:35">
-      <c r="N92" s="1" t="s">
+    <row r="189" spans="14:35">
+      <c r="N189" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="X92" s="1" t="s">
+      <c r="X189" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AI92" s="1" t="s">
+      <c r="AI189" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="93" spans="14:35">
-      <c r="X93" s="1" t="s">
+    <row r="190" spans="14:35">
+      <c r="X190" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="102" spans="29:29">
-      <c r="AC102" s="3"/>
+    <row r="199" spans="29:29">
+      <c r="AC199" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="O61:T61"/>
+    <mergeCell ref="O58:T58"/>
+    <mergeCell ref="O59:T59"/>
+    <mergeCell ref="O60:T60"/>
+    <mergeCell ref="U57:W59"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="O57:T57"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Backend/2. C#/C#笔记.xlsx
+++ b/Backend/2. C#/C#笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janss\Desktop\Full-stack\Backend\2. C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509B5C2-481A-4130-A65F-5FE8173995A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AB499F-16F8-4AA9-97B7-C07A0CD2436F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{FDF50CD9-36D8-4159-AC2D-F632DE44E8E7}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FDF50CD9-36D8-4159-AC2D-F632DE44E8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="C#导航栏" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="405">
   <si>
     <t>日志和监控
 使用Serilog或NLog
@@ -1176,32 +1176,6 @@
     <t>2. 委托是类型还是成员？如何声明委托？方法申明委托有哪些格式要求呢？如何创建委托对象并赋值?如何从委托添加或者减少方法？</t>
   </si>
   <si>
-    <r>
-      <t>从委托通过 += 添加或者 -= 减少方法（注意：通过这种方法实际上是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>创建了一个新的对象</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
     <t>3. 如何调用委托？分无返回值、有值类型参数、有引用参数</t>
   </si>
   <si>
@@ -1696,7 +1670,72 @@
     <t>5. 泛型方法——了解如何声明泛型方法、调用泛型方法</t>
   </si>
   <si>
-    <t>6. 扩展方法和泛型类</t>
+    <t>2. 必须是静态类的成员</t>
+  </si>
+  <si>
+    <t>3. 第一个参数类型中必须要有this关键字，后面是扩展的泛型类的名字</t>
+  </si>
+  <si>
+    <t>1. 类名必须声明为static</t>
+  </si>
+  <si>
+    <t>6. 扩展方法使用的场景是什么？扩展方法在泛型类上的语法是什么？</t>
+  </si>
+  <si>
+    <t>7. 泛型结构 ——  与泛型类一样</t>
+  </si>
+  <si>
+    <t>8. 委托泛型</t>
+  </si>
+  <si>
+    <r>
+      <t>从委托通过 += 添加或者 -= 减少方法（很少用）（注意：通过这种方法实际上是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建了一个新的对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>1. function声明的语法是什么？function在哪里声明？</t>
+  </si>
+  <si>
+    <t>2. function里的变量叫什么？和在类里定义的变量有什么区别？function里变量申明的语法是什么？</t>
+  </si>
+  <si>
+    <t>3. C#中var和js中var的区别？简述C#中var的作用</t>
+  </si>
+  <si>
+    <t>4. 什么是常量？申明的语法规则是什么？在function中和在class中有什么区别</t>
+  </si>
+  <si>
+    <t>5. 方法如何在内部调用和在外部调用？</t>
+  </si>
+  <si>
+    <t>6. 什么是实参，什么是形参？形参分为哪几种类型？请简述堆栈图</t>
+  </si>
+  <si>
+    <t>7. 详细描述什么是参数数组？声明的语法规则是什么？有哪些注意事项？了解可选参数的声明顺序</t>
+  </si>
+  <si>
+    <t>8. 了解方法重载. 简述哪些地方不同可以方法重载</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2252,13 +2291,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2267,13 +2300,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2284,9 +2320,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29786,7 +29819,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>方法二（推荐）</a:t>
+            <a:t>方法二（推荐）更加建议用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lambda</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" altLang="zh-CN" sz="1100" baseline="0">
             <a:solidFill>
@@ -31129,13 +31174,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -31422,13 +31467,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -31785,13 +31830,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -32101,13 +32146,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -32394,13 +32439,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -32720,13 +32765,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>398369</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>160804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>160803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -32788,13 +32833,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>136070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>508907</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33177,13 +33222,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>610960</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33245,13 +33290,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>375958</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>138393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>138392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33313,13 +33358,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>11207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33567,13 +33612,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>2241</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>83483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33895,13 +33940,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>110940</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35471,6 +35516,486 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>        functionA.PrintDatas(20, new int[] { 1, 2, 4 });</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECAB4BE-E4C5-4D61-AC56-87B3FCC0C5DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="25384124"/>
+          <a:ext cx="4267200" cy="3305175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Method&lt;T&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    static private T[] arr = new T[10];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    static private int i;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    internal T[] Array =&gt; arr;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    internal int Length =&gt; arr.Length;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public void addArr(T a)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if(i &gt;= arr.Length)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            Console.WriteLine("Array is full");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        arr[i] = a;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        Console.WriteLine($"Added element at position {i} :{arr[i]}");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        i++;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF600E46-B19C-4D53-B8B2-7C01A5DA115B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="25527000"/>
+          <a:ext cx="4267200" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>static class ExtendedMethods</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public static T GetElement&lt;T&gt;(this Method&lt;T&gt; method, int index)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if (index &lt; 0 || index &gt;= method.Length)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            throw new IndexOutOfRangeException();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return method.Array[index];</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -35922,7 +36447,7 @@
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
@@ -36303,8 +36828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E73D4A-172B-4D97-AD02-0D0188B38C02}">
   <dimension ref="B2:AM320"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L129" sqref="L129"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H32:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36797,38 +37322,38 @@
     </row>
     <row r="237" spans="2:3">
       <c r="B237" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="239" spans="2:3">
       <c r="C239" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="241" spans="2:4">
       <c r="D241" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="243" spans="2:4">
       <c r="D243" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="245" spans="2:4">
       <c r="D245" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="247" spans="2:4">
       <c r="C247" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="2:4" s="2" customFormat="1"/>
     <row r="249" spans="2:4">
       <c r="B249" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="251" spans="2:4">
@@ -36843,32 +37368,32 @@
     </row>
     <row r="268" spans="3:3">
       <c r="C268" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270" spans="3:3">
       <c r="C270" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="2:19">
       <c r="O309" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="310" spans="2:19">
       <c r="B310" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="2:19">
@@ -36879,7 +37404,7 @@
     </row>
     <row r="312" spans="2:19">
       <c r="C312" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="314" spans="2:19">
@@ -36930,8 +37455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A75EC0-F63A-4F3C-A639-656A73033C72}">
   <dimension ref="B2:X249"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U198" sqref="U198:U205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37255,7 +37780,7 @@
     </row>
     <row r="48" spans="3:7">
       <c r="D48" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -37280,7 +37805,7 @@
     </row>
     <row r="72" spans="3:11">
       <c r="C72" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="3:11">
@@ -37427,7 +37952,7 @@
     </row>
     <row r="115" spans="4:24">
       <c r="R115" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="4:24">
@@ -37691,7 +38216,7 @@
     </row>
     <row r="157" spans="3:23">
       <c r="D157" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" spans="3:23">
@@ -37721,52 +38246,90 @@
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="194" spans="3:21">
+      <c r="D194" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="194" spans="3:4">
-      <c r="D194" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="197" spans="3:4">
+    <row r="197" spans="3:21">
       <c r="C197" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="199" spans="3:4">
+    <row r="198" spans="3:21">
+      <c r="U198" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="199" spans="3:21">
       <c r="D199" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="U199" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="200" spans="3:21">
+      <c r="U200" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="3:21">
+      <c r="U201" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="3:21">
+      <c r="U202" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" spans="3:21">
+      <c r="U203" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="204" spans="3:21">
+      <c r="U204" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="205" spans="3:21">
+      <c r="U205" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="229" spans="2:4">
       <c r="B229" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="231" spans="2:4">
       <c r="C231" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="233" spans="2:4">
       <c r="D233" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="235" spans="2:4">
       <c r="D235" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="237" spans="2:4">
       <c r="D237" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="239" spans="2:4">
       <c r="C239" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="241" spans="4:6">
@@ -37774,7 +38337,7 @@
         <v>72</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="243" spans="4:6">
@@ -37782,7 +38345,7 @@
         <v>71</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="245" spans="4:6">
@@ -37790,7 +38353,7 @@
         <v>73</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="247" spans="4:6">
@@ -37798,7 +38361,7 @@
         <v>74</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="249" spans="4:6">
@@ -37806,7 +38369,7 @@
         <v>75</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -37819,7 +38382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8857E835-7E0E-4F11-9E7E-27875E254D24}">
   <dimension ref="E3:AG183"/>
   <sheetViews>
-    <sheetView topLeftCell="D169" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y162" sqref="Y162"/>
     </sheetView>
   </sheetViews>
@@ -38168,7 +38731,7 @@
     </row>
     <row r="62" spans="5:26" ht="15.75" thickBot="1">
       <c r="F62" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V62" s="23"/>
       <c r="W62" s="24"/>
@@ -38222,7 +38785,7 @@
     <row r="91" spans="5:33">
       <c r="AC91" s="20"/>
       <c r="AD91" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AE91" s="43"/>
       <c r="AF91" s="14"/>
@@ -38322,37 +38885,37 @@
     </row>
     <row r="123" spans="5:6">
       <c r="E123" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="125" spans="5:6">
       <c r="F125" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="5:6">
       <c r="F127" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="7:7">
       <c r="G129" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="7:8">
       <c r="G155" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="157" spans="7:8">
       <c r="H157" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -38492,7 +39055,7 @@
     </row>
     <row r="10" spans="1:29">
       <c r="B10" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -38960,8 +39523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34AB0AF-5F6E-495D-A7A0-8B2ACC54B75F}">
   <dimension ref="D4:AW139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:BE205"/>
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39038,38 +39601,38 @@
         <v>282</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="5:20">
       <c r="E89" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="5:20">
       <c r="F91" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="5:20">
       <c r="G94" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="T94" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="134" spans="5:49">
       <c r="E134" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="5:49">
       <c r="F136" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="5:49">
@@ -39097,10 +39660,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D9CD6D-1EAA-4EE6-897F-5DE4D2098EAD}">
-  <dimension ref="I2:AI199"/>
+  <dimension ref="I2:AI247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J126" sqref="J126"/>
+    <sheetView topLeftCell="F197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39119,187 +39682,187 @@
     </row>
     <row r="4" spans="9:11">
       <c r="J4" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="9:11">
       <c r="K6" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="10:23">
       <c r="K21" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="10:23">
       <c r="J23" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="10:23">
       <c r="K25" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="10:23">
       <c r="J27" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="10:23">
       <c r="V28" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="10:23">
       <c r="K29" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="10:23">
       <c r="W30" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="10:23">
       <c r="L31" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="10:23">
       <c r="L32" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="10:12">
       <c r="L33" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="10:12">
       <c r="K42" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="10:12">
       <c r="J46" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="10:12">
       <c r="K48" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="11:23">
       <c r="K50" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="11:23">
       <c r="K52" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="11:23">
       <c r="K55" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="11:23">
+      <c r="L57" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="M57" s="61" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="57" spans="11:23">
-      <c r="L57" s="61" t="s">
-        <v>375</v>
-      </c>
-      <c r="M57" s="63" t="s">
-        <v>372</v>
-      </c>
-      <c r="N57" s="64"/>
+      <c r="N57" s="62"/>
       <c r="O57" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P57" s="59"/>
       <c r="Q57" s="59"/>
       <c r="R57" s="59"/>
       <c r="S57" s="59"/>
       <c r="T57" s="59"/>
-      <c r="U57" s="70" t="s">
-        <v>383</v>
-      </c>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
+      <c r="U57" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="V57" s="69"/>
+      <c r="W57" s="69"/>
     </row>
     <row r="58" spans="11:23">
-      <c r="L58" s="61"/>
-      <c r="M58" s="60" t="s">
+      <c r="L58" s="60"/>
+      <c r="M58" s="63" t="s">
         <v>44</v>
       </c>
       <c r="N58" s="58"/>
-      <c r="O58" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="69"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
+      <c r="O58" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="69"/>
+      <c r="V58" s="69"/>
+      <c r="W58" s="69"/>
     </row>
     <row r="59" spans="11:23">
-      <c r="L59" s="61"/>
-      <c r="M59" s="65" t="s">
+      <c r="L59" s="60"/>
+      <c r="M59" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="N59" s="66"/>
-      <c r="O59" s="61" t="s">
-        <v>379</v>
-      </c>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="69"/>
-      <c r="U59" s="70"/>
-      <c r="V59" s="70"/>
-      <c r="W59" s="70"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="69"/>
+      <c r="V59" s="69"/>
+      <c r="W59" s="69"/>
     </row>
     <row r="60" spans="11:23">
       <c r="L60" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="M60" s="62" t="s">
-        <v>373</v>
-      </c>
-      <c r="N60" s="62"/>
-      <c r="O60" s="61" t="s">
-        <v>381</v>
-      </c>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="69"/>
+        <v>375</v>
+      </c>
+      <c r="M60" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="N60" s="66"/>
+      <c r="O60" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="68"/>
       <c r="U60" s="59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V60" s="59"/>
       <c r="W60" s="59"/>
     </row>
     <row r="61" spans="11:23">
       <c r="L61" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M61" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N61" s="59"/>
       <c r="O61" s="59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P61" s="59"/>
       <c r="Q61" s="59"/>
@@ -39307,588 +39870,578 @@
       <c r="S61" s="59"/>
       <c r="T61" s="59"/>
       <c r="U61" s="59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V61" s="59"/>
       <c r="W61" s="59"/>
     </row>
     <row r="62" spans="11:23">
-      <c r="L62" s="71"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="67"/>
-      <c r="T62" s="67"/>
-      <c r="U62" s="67"/>
-      <c r="V62" s="67"/>
-      <c r="W62" s="67"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
     </row>
     <row r="63" spans="11:23">
-      <c r="L63" s="71"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
     </row>
     <row r="64" spans="11:23">
-      <c r="L64" s="71"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="67"/>
-    </row>
-    <row r="65" spans="12:23">
-      <c r="L65" s="71"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
-      <c r="T65" s="67"/>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
-    </row>
-    <row r="66" spans="12:23">
-      <c r="L66" s="71"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="67"/>
-      <c r="T66" s="67"/>
-      <c r="U66" s="67"/>
-      <c r="V66" s="67"/>
-      <c r="W66" s="67"/>
-    </row>
-    <row r="67" spans="12:23">
-      <c r="L67" s="71"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
-      <c r="P67" s="67"/>
-      <c r="Q67" s="67"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="67"/>
-      <c r="T67" s="67"/>
-      <c r="U67" s="67"/>
-      <c r="V67" s="67"/>
-      <c r="W67" s="67"/>
-    </row>
-    <row r="68" spans="12:23">
-      <c r="L68" s="71"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="67"/>
-      <c r="O68" s="67"/>
-      <c r="P68" s="67"/>
-      <c r="Q68" s="67"/>
-      <c r="R68" s="67"/>
-      <c r="S68" s="67"/>
-      <c r="T68" s="67"/>
-      <c r="U68" s="67"/>
-      <c r="V68" s="67"/>
-      <c r="W68" s="67"/>
-    </row>
-    <row r="69" spans="12:23">
-      <c r="L69" s="71"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="67"/>
-      <c r="O69" s="67"/>
-      <c r="P69" s="67"/>
-      <c r="Q69" s="67"/>
-      <c r="R69" s="67"/>
-      <c r="S69" s="67"/>
-      <c r="T69" s="67"/>
-      <c r="U69" s="67"/>
-      <c r="V69" s="67"/>
-      <c r="W69" s="67"/>
-    </row>
-    <row r="70" spans="12:23">
-      <c r="L70" s="71"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67"/>
-      <c r="O70" s="67"/>
-      <c r="P70" s="67"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="67"/>
-      <c r="S70" s="67"/>
-      <c r="T70" s="67"/>
-      <c r="U70" s="67"/>
-      <c r="V70" s="67"/>
-      <c r="W70" s="67"/>
-    </row>
-    <row r="71" spans="12:23">
-      <c r="L71" s="71"/>
-      <c r="M71" s="67"/>
-      <c r="N71" s="67"/>
-      <c r="O71" s="67"/>
-      <c r="P71" s="67"/>
-      <c r="Q71" s="67"/>
-      <c r="R71" s="67"/>
-      <c r="S71" s="67"/>
-      <c r="T71" s="67"/>
-      <c r="U71" s="67"/>
-      <c r="V71" s="67"/>
-      <c r="W71" s="67"/>
-    </row>
-    <row r="72" spans="12:23">
-      <c r="L72" s="71"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="67"/>
-      <c r="O72" s="67"/>
-      <c r="P72" s="67"/>
-      <c r="Q72" s="67"/>
-      <c r="R72" s="67"/>
-      <c r="S72" s="67"/>
-      <c r="T72" s="67"/>
-      <c r="U72" s="67"/>
-      <c r="V72" s="67"/>
-      <c r="W72" s="67"/>
-    </row>
-    <row r="73" spans="12:23">
-      <c r="L73" s="71"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="67"/>
-      <c r="O73" s="67"/>
-      <c r="P73" s="67"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="67"/>
-      <c r="S73" s="67"/>
-      <c r="T73" s="67"/>
-      <c r="U73" s="67"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="67"/>
-    </row>
-    <row r="74" spans="12:23">
-      <c r="L74" s="71"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="67"/>
-      <c r="P74" s="67"/>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="67"/>
-      <c r="S74" s="67"/>
-      <c r="T74" s="67"/>
-      <c r="U74" s="67"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="67"/>
-    </row>
-    <row r="75" spans="12:23">
-      <c r="L75" s="71"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="67"/>
-      <c r="O75" s="67"/>
-      <c r="P75" s="67"/>
-      <c r="Q75" s="67"/>
-      <c r="R75" s="67"/>
-      <c r="S75" s="67"/>
-      <c r="T75" s="67"/>
-      <c r="U75" s="67"/>
-      <c r="V75" s="67"/>
-      <c r="W75" s="67"/>
-    </row>
-    <row r="76" spans="12:23">
-      <c r="L76" s="71"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="67"/>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67"/>
-      <c r="Q76" s="67"/>
-      <c r="R76" s="67"/>
-      <c r="S76" s="67"/>
-      <c r="T76" s="67"/>
-      <c r="U76" s="67"/>
-      <c r="V76" s="67"/>
-      <c r="W76" s="67"/>
-    </row>
-    <row r="77" spans="12:23">
-      <c r="L77" s="71"/>
-      <c r="M77" s="67"/>
-      <c r="N77" s="67"/>
-      <c r="O77" s="67"/>
-      <c r="P77" s="67"/>
-      <c r="Q77" s="67"/>
-      <c r="R77" s="67"/>
-      <c r="S77" s="67"/>
-      <c r="T77" s="67"/>
-      <c r="U77" s="67"/>
-      <c r="V77" s="67"/>
-      <c r="W77" s="67"/>
-    </row>
-    <row r="78" spans="12:23">
-      <c r="L78" s="71"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="67"/>
-      <c r="O78" s="67"/>
-      <c r="P78" s="67"/>
-      <c r="Q78" s="67"/>
-      <c r="R78" s="67"/>
-      <c r="S78" s="67"/>
-      <c r="T78" s="67"/>
-      <c r="U78" s="67"/>
-      <c r="V78" s="67"/>
-      <c r="W78" s="67"/>
-    </row>
-    <row r="79" spans="12:23">
-      <c r="L79" s="71"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="67"/>
-      <c r="O79" s="67"/>
-      <c r="P79" s="67"/>
-      <c r="Q79" s="67"/>
-      <c r="R79" s="67"/>
-      <c r="S79" s="67"/>
-      <c r="T79" s="67"/>
-      <c r="U79" s="67"/>
-      <c r="V79" s="67"/>
-      <c r="W79" s="67"/>
-    </row>
-    <row r="80" spans="12:23">
-      <c r="L80" s="71"/>
-      <c r="M80" s="67"/>
-      <c r="N80" s="67"/>
-      <c r="O80" s="67"/>
-      <c r="P80" s="67"/>
-      <c r="Q80" s="67"/>
-      <c r="R80" s="67"/>
-      <c r="S80" s="67"/>
-      <c r="T80" s="67"/>
-      <c r="U80" s="67"/>
-      <c r="V80" s="67"/>
-      <c r="W80" s="67"/>
-    </row>
-    <row r="81" spans="12:23">
-      <c r="L81" s="71"/>
-      <c r="M81" s="67"/>
-      <c r="N81" s="67"/>
-      <c r="O81" s="67"/>
-      <c r="P81" s="67"/>
-      <c r="Q81" s="67"/>
-      <c r="R81" s="67"/>
-      <c r="S81" s="67"/>
-      <c r="T81" s="67"/>
-      <c r="U81" s="67"/>
-      <c r="V81" s="67"/>
-      <c r="W81" s="67"/>
-    </row>
-    <row r="82" spans="12:23">
-      <c r="L82" s="71"/>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67"/>
-      <c r="O82" s="67"/>
-      <c r="P82" s="67"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="67"/>
-      <c r="S82" s="67"/>
-      <c r="T82" s="67"/>
-      <c r="U82" s="67"/>
-      <c r="V82" s="67"/>
-      <c r="W82" s="67"/>
-    </row>
-    <row r="83" spans="12:23">
-      <c r="L83" s="71"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="67"/>
-      <c r="S83" s="67"/>
-      <c r="T83" s="67"/>
-      <c r="U83" s="67"/>
-      <c r="V83" s="67"/>
-      <c r="W83" s="67"/>
-    </row>
-    <row r="84" spans="12:23">
-      <c r="L84" s="71"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
-      <c r="O84" s="67"/>
-      <c r="P84" s="67"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="67"/>
-      <c r="S84" s="67"/>
-      <c r="T84" s="67"/>
-      <c r="U84" s="67"/>
-      <c r="V84" s="67"/>
-      <c r="W84" s="67"/>
-    </row>
-    <row r="85" spans="12:23">
-      <c r="L85" s="71"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
-      <c r="O85" s="67"/>
-      <c r="P85" s="67"/>
-      <c r="Q85" s="67"/>
-      <c r="R85" s="67"/>
-      <c r="S85" s="67"/>
-      <c r="T85" s="67"/>
-      <c r="U85" s="67"/>
-      <c r="V85" s="67"/>
-      <c r="W85" s="67"/>
-    </row>
-    <row r="86" spans="12:23">
-      <c r="L86" s="71"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="67"/>
-      <c r="O86" s="67"/>
-      <c r="P86" s="67"/>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="67"/>
-      <c r="S86" s="67"/>
-      <c r="T86" s="67"/>
-      <c r="U86" s="67"/>
-      <c r="V86" s="67"/>
-      <c r="W86" s="67"/>
-    </row>
-    <row r="87" spans="12:23">
-      <c r="L87" s="71"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="67"/>
-      <c r="P87" s="67"/>
-      <c r="Q87" s="67"/>
-      <c r="R87" s="67"/>
-      <c r="S87" s="67"/>
-      <c r="T87" s="67"/>
-      <c r="U87" s="67"/>
-      <c r="V87" s="67"/>
-      <c r="W87" s="67"/>
-    </row>
-    <row r="88" spans="12:23">
-      <c r="L88" s="71"/>
-      <c r="M88" s="67"/>
-      <c r="N88" s="67"/>
-      <c r="O88" s="67"/>
-      <c r="P88" s="67"/>
-      <c r="Q88" s="67"/>
-      <c r="R88" s="67"/>
-      <c r="S88" s="67"/>
-      <c r="T88" s="67"/>
-      <c r="U88" s="67"/>
-      <c r="V88" s="67"/>
-      <c r="W88" s="67"/>
-    </row>
-    <row r="89" spans="12:23">
-      <c r="L89" s="71"/>
-      <c r="M89" s="67"/>
-      <c r="N89" s="67"/>
-      <c r="O89" s="67"/>
-      <c r="P89" s="67"/>
-      <c r="Q89" s="67"/>
-      <c r="R89" s="67"/>
-      <c r="S89" s="67"/>
-      <c r="T89" s="67"/>
-      <c r="U89" s="67"/>
-      <c r="V89" s="67"/>
-      <c r="W89" s="67"/>
-    </row>
-    <row r="90" spans="12:23">
-      <c r="L90" s="71"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="67"/>
-      <c r="O90" s="67"/>
-      <c r="P90" s="67"/>
-      <c r="Q90" s="67"/>
-      <c r="R90" s="67"/>
-      <c r="S90" s="67"/>
-      <c r="T90" s="67"/>
-      <c r="U90" s="67"/>
-      <c r="V90" s="67"/>
-      <c r="W90" s="67"/>
-    </row>
-    <row r="91" spans="12:23">
-      <c r="L91" s="71"/>
-      <c r="M91" s="67"/>
-      <c r="N91" s="67"/>
-      <c r="O91" s="67"/>
-      <c r="P91" s="67"/>
-      <c r="Q91" s="67"/>
-      <c r="R91" s="67"/>
-      <c r="S91" s="67"/>
-      <c r="T91" s="67"/>
-      <c r="U91" s="67"/>
-      <c r="V91" s="67"/>
-      <c r="W91" s="67"/>
-    </row>
-    <row r="92" spans="12:23">
-      <c r="L92" s="71"/>
-      <c r="M92" s="67"/>
-      <c r="N92" s="67"/>
-      <c r="O92" s="67"/>
-      <c r="P92" s="67"/>
-      <c r="Q92" s="67"/>
-      <c r="R92" s="67"/>
-      <c r="S92" s="67"/>
-      <c r="T92" s="67"/>
-      <c r="U92" s="67"/>
-      <c r="V92" s="67"/>
-      <c r="W92" s="67"/>
-    </row>
-    <row r="93" spans="12:23">
-      <c r="L93" s="71"/>
-      <c r="M93" s="67"/>
-      <c r="N93" s="67"/>
-      <c r="O93" s="67"/>
-      <c r="P93" s="67"/>
-      <c r="Q93" s="67"/>
-      <c r="R93" s="67"/>
-      <c r="S93" s="67"/>
-      <c r="T93" s="67"/>
-      <c r="U93" s="67"/>
-      <c r="V93" s="67"/>
-      <c r="W93" s="67"/>
-    </row>
-    <row r="94" spans="12:23">
-      <c r="L94" s="71"/>
-      <c r="M94" s="67"/>
-      <c r="N94" s="67"/>
-      <c r="O94" s="67"/>
-      <c r="P94" s="67"/>
-      <c r="Q94" s="67"/>
-      <c r="R94" s="67"/>
-      <c r="S94" s="67"/>
-      <c r="T94" s="67"/>
-      <c r="U94" s="67"/>
-      <c r="V94" s="67"/>
-      <c r="W94" s="67"/>
-    </row>
-    <row r="95" spans="12:23">
-      <c r="L95" s="71"/>
-      <c r="M95" s="67"/>
-      <c r="N95" s="67"/>
-      <c r="O95" s="67"/>
-      <c r="P95" s="67"/>
-      <c r="Q95" s="67"/>
-      <c r="R95" s="67"/>
-      <c r="S95" s="67"/>
-      <c r="T95" s="67"/>
-      <c r="U95" s="67"/>
-      <c r="V95" s="67"/>
-      <c r="W95" s="67"/>
-    </row>
-    <row r="96" spans="12:23">
-      <c r="L96" s="71"/>
-      <c r="M96" s="67"/>
-      <c r="N96" s="67"/>
-      <c r="O96" s="67"/>
-      <c r="P96" s="67"/>
-      <c r="Q96" s="67"/>
-      <c r="R96" s="67"/>
-      <c r="S96" s="67"/>
-      <c r="T96" s="67"/>
-      <c r="U96" s="67"/>
-      <c r="V96" s="67"/>
-      <c r="W96" s="67"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+    </row>
+    <row r="65" spans="13:23">
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+    </row>
+    <row r="66" spans="13:23">
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+    </row>
+    <row r="67" spans="13:23">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="13:23">
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+    </row>
+    <row r="69" spans="13:23">
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+    </row>
+    <row r="70" spans="13:23">
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+    </row>
+    <row r="71" spans="13:23">
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+    </row>
+    <row r="72" spans="13:23">
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+    </row>
+    <row r="73" spans="13:23">
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+    </row>
+    <row r="74" spans="13:23">
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+    </row>
+    <row r="75" spans="13:23">
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+    </row>
+    <row r="76" spans="13:23">
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+    </row>
+    <row r="77" spans="13:23">
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+    </row>
+    <row r="78" spans="13:23">
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+    </row>
+    <row r="79" spans="13:23">
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+    </row>
+    <row r="80" spans="13:23">
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+    </row>
+    <row r="81" spans="13:23">
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+    </row>
+    <row r="82" spans="13:23">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="13:23">
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+    </row>
+    <row r="84" spans="13:23">
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+    </row>
+    <row r="85" spans="13:23">
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+    </row>
+    <row r="86" spans="13:23">
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+    </row>
+    <row r="87" spans="13:23">
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+    </row>
+    <row r="88" spans="13:23">
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+    </row>
+    <row r="89" spans="13:23">
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+    </row>
+    <row r="90" spans="13:23">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="13:23">
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+    </row>
+    <row r="92" spans="13:23">
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+    </row>
+    <row r="93" spans="13:23">
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+    </row>
+    <row r="94" spans="13:23">
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+    </row>
+    <row r="95" spans="13:23">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="13:23">
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
     </row>
     <row r="102" spans="10:21">
       <c r="J102" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="10:21">
       <c r="K104" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="10:21">
       <c r="K106" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="10:21">
       <c r="K108" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="10:21">
       <c r="K111" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="U111" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="U111" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="10:10">
+    </row>
+    <row r="126" spans="10:11">
       <c r="J126" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="128" spans="10:11">
+      <c r="K128" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="130" spans="11:11">
+      <c r="K130" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="132" spans="11:11">
+      <c r="K132" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="140" spans="9:10">
-      <c r="I140" s="8" t="s">
+    <row r="153" spans="10:10">
+      <c r="J153" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="155" spans="10:10">
+      <c r="J155" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="188" spans="9:10">
+      <c r="I188" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="190" spans="9:10">
+      <c r="J190" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="142" spans="9:10">
-      <c r="J142" s="1" t="s">
+    <row r="192" spans="9:10">
+      <c r="J192" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="193" spans="11:30">
+      <c r="K193" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="144" spans="9:10">
-      <c r="J144" s="2" t="s">
+      <c r="AD193" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="213" spans="10:30">
+      <c r="J213" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="216" spans="10:30">
+      <c r="K216" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD216" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="237" spans="14:35">
+      <c r="N237" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="X237" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="145" spans="11:30">
-      <c r="K145" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AD145" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="165" spans="10:30">
-      <c r="J165" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="168" spans="10:30">
-      <c r="K168" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AD168" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="189" spans="14:35">
-      <c r="N189" s="1" t="s">
+      <c r="AI237" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="238" spans="14:35">
+      <c r="X238" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="X189" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI189" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="190" spans="14:35">
-      <c r="X190" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="199" spans="29:29">
-      <c r="AC199" s="3"/>
+    </row>
+    <row r="247" spans="29:29">
+      <c r="AC247" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -39900,12 +40453,12 @@
     <mergeCell ref="U61:W61"/>
     <mergeCell ref="U60:W60"/>
     <mergeCell ref="O57:T57"/>
+    <mergeCell ref="M61:N61"/>
     <mergeCell ref="L57:L59"/>
     <mergeCell ref="M57:N57"/>
     <mergeCell ref="M58:N58"/>
     <mergeCell ref="M59:N59"/>
     <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39928,7 +40481,7 @@
   <sheetData>
     <row r="4" spans="3:8">
       <c r="C4" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -39947,7 +40500,7 @@
     <row r="6" spans="3:8">
       <c r="C6" s="53"/>
       <c r="D6" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
@@ -39990,7 +40543,7 @@
     </row>
     <row r="7" spans="3:17">
       <c r="C7" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -40025,7 +40578,7 @@
     <row r="9" spans="3:17">
       <c r="C9" s="53"/>
       <c r="D9" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
@@ -40060,7 +40613,7 @@
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -40094,7 +40647,7 @@
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
       <c r="E13" s="53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -40125,7 +40678,7 @@
     <row r="15" spans="3:17">
       <c r="C15" s="53"/>
       <c r="D15" s="53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="53"/>
@@ -40155,7 +40708,7 @@
     <row r="17" spans="3:14">
       <c r="C17" s="53"/>
       <c r="D17" s="53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>

--- a/Backend/2. C#/C#笔记.xlsx
+++ b/Backend/2. C#/C#笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janss\Desktop\Full-stack\Backend\2. C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AB499F-16F8-4AA9-97B7-C07A0CD2436F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E9B196-205A-43F8-B977-F92C9533D09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FDF50CD9-36D8-4159-AC2D-F632DE44E8E7}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FDF50CD9-36D8-4159-AC2D-F632DE44E8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="C#导航栏" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="407">
   <si>
     <t>日志和监控
 使用Serilog或NLog
@@ -849,9 +849,6 @@
     <t>1. 泛型</t>
   </si>
   <si>
-    <t>2. 枚举器和迭代器</t>
-  </si>
-  <si>
     <t>Baseclass</t>
   </si>
   <si>
@@ -1040,9 +1037,6 @@
     <t>简洁写法推荐</t>
   </si>
   <si>
-    <t xml:space="preserve"> 委托与事件</t>
-  </si>
-  <si>
     <t>日志记录</t>
   </si>
   <si>
@@ -1189,9 +1183,6 @@
   </si>
   <si>
     <t>调用委托的参数将会用于调用列表中的每一个方法。如果一个方法在调用列表多次，当委托被调用时，每次在列表中遇到这个方法时它都会被调用一次</t>
-  </si>
-  <si>
-    <t>4.列举几个事件使用的场合，并说明事件与委托是什么关系？</t>
   </si>
   <si>
     <t>委托与事件的关系：事件是只管是否会触发，而委托是管具体发生什么行为。比如，我按下遥控器代表一个事件，具体是开机还是音量变大交给委托</t>
@@ -1495,9 +1486,6 @@
     <t>匿名方法</t>
   </si>
   <si>
-    <t>1. 可以省略参数数据类型，编译器根据委托推断出编译类型</t>
-  </si>
-  <si>
     <t>3.方法体只有一行return代码，那么可省略方法体的{}以及return</t>
   </si>
   <si>
@@ -1688,8 +1676,32 @@
     <t>8. 委托泛型</t>
   </si>
   <si>
+    <t>1. function声明的语法是什么？function在哪里声明？</t>
+  </si>
+  <si>
+    <t>2. function里的变量叫什么？和在类里定义的变量有什么区别？function里变量申明的语法是什么？</t>
+  </si>
+  <si>
+    <t>3. C#中var和js中var的区别？简述C#中var的作用</t>
+  </si>
+  <si>
+    <t>4. 什么是常量？申明的语法规则是什么？在function中和在class中有什么区别</t>
+  </si>
+  <si>
+    <t>5. 方法如何在内部调用和在外部调用？</t>
+  </si>
+  <si>
+    <t>6. 什么是实参，什么是形参？形参分为哪几种类型？请简述堆栈图</t>
+  </si>
+  <si>
+    <t>7. 详细描述什么是参数数组？声明的语法规则是什么？有哪些注意事项？了解可选参数的声明顺序</t>
+  </si>
+  <si>
+    <t>8. 了解方法重载. 简述哪些地方不同可以方法重载</t>
+  </si>
+  <si>
     <r>
-      <t>从委托通过 += 添加或者 -= 减少方法（很少用）（注意：通过这种方法实际上是</t>
+      <t>从委托通过 += 添加或者 -= 减少方法（注意：通过这种方法实际上是</t>
     </r>
     <r>
       <rPr>
@@ -1714,28 +1726,45 @@
     </r>
   </si>
   <si>
-    <t>1. function声明的语法是什么？function在哪里声明？</t>
+    <r>
+      <t>1. 可以省略参数数据类型，编译器根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>委托</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>推断出编译类型</t>
+    </r>
   </si>
   <si>
-    <t>2. function里的变量叫什么？和在类里定义的变量有什么区别？function里变量申明的语法是什么？</t>
+    <t xml:space="preserve"> 委托</t>
   </si>
   <si>
-    <t>3. C#中var和js中var的区别？简述C#中var的作用</t>
+    <t>1. 列举几个事件使用的场合，并说明事件与委托是什么关系？</t>
   </si>
   <si>
-    <t>4. 什么是常量？申明的语法规则是什么？在function中和在class中有什么区别</t>
+    <t>类型</t>
   </si>
   <si>
-    <t>5. 方法如何在内部调用和在外部调用？</t>
+    <t>委托是类型，事件是成员</t>
   </si>
   <si>
-    <t>6. 什么是实参，什么是形参？形参分为哪几种类型？请简述堆栈图</t>
-  </si>
-  <si>
-    <t>7. 详细描述什么是参数数组？声明的语法规则是什么？有哪些注意事项？了解可选参数的声明顺序</t>
-  </si>
-  <si>
-    <t>8. 了解方法重载. 简述哪些地方不同可以方法重载</t>
+    <t>6. 枚举器和迭代器</t>
   </si>
 </sst>
 </file>
@@ -2294,6 +2323,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2311,15 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23842,8 +23871,8 @@
       <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>400210</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>202</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -23860,8 +23889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27255107" y="46985464"/>
-          <a:ext cx="4977653" cy="11974286"/>
+          <a:off x="10662557" y="26601964"/>
+          <a:ext cx="5977618" cy="11974286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -32315,7 +32344,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>            Action f1 = delegate ()</a:t>
+            <a:t>            Action f1 = () =&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -33012,8 +33041,27 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>            Action&lt;string, int&gt; f2 = delegate (string n, int i)</a:t>
-          </a:r>
+            <a:t>            Action&lt;string, int&gt; f2 =  (string n, int i) =</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -36447,7 +36495,7 @@
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
@@ -36515,7 +36563,7 @@
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="55"/>
@@ -36552,7 +36600,7 @@
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -36587,7 +36635,7 @@
     </row>
     <row r="15" spans="2:22">
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
@@ -36620,7 +36668,7 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="55"/>
@@ -36828,7 +36876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E73D4A-172B-4D97-AD02-0D0188B38C02}">
   <dimension ref="B2:AM320"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H33" sqref="H32:H33"/>
     </sheetView>
   </sheetViews>
@@ -37322,38 +37370,38 @@
     </row>
     <row r="237" spans="2:3">
       <c r="B237" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="239" spans="2:3">
       <c r="C239" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="241" spans="2:4">
       <c r="D241" s="49" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243" spans="2:4">
       <c r="D243" s="49" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="245" spans="2:4">
       <c r="D245" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="247" spans="2:4">
       <c r="C247" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="248" spans="2:4" s="2" customFormat="1"/>
     <row r="249" spans="2:4">
       <c r="B249" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="251" spans="2:4">
@@ -37368,32 +37416,32 @@
     </row>
     <row r="268" spans="3:3">
       <c r="C268" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="270" spans="3:3">
       <c r="C270" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="309" spans="2:19">
       <c r="O309" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="2:19">
       <c r="B310" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="311" spans="2:19">
@@ -37404,7 +37452,7 @@
     </row>
     <row r="312" spans="2:19">
       <c r="C312" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="314" spans="2:19">
@@ -37455,8 +37503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A75EC0-F63A-4F3C-A639-656A73033C72}">
   <dimension ref="B2:X249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U198" sqref="U198:U205"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37780,7 +37828,7 @@
     </row>
     <row r="48" spans="3:7">
       <c r="D48" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -37805,7 +37853,7 @@
     </row>
     <row r="72" spans="3:11">
       <c r="C72" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="3:11">
@@ -37952,7 +38000,7 @@
     </row>
     <row r="115" spans="4:24">
       <c r="R115" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="4:24">
@@ -38216,7 +38264,7 @@
     </row>
     <row r="157" spans="3:23">
       <c r="D157" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="3:23">
@@ -38246,12 +38294,12 @@
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="3:21">
       <c r="D194" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="197" spans="3:21">
@@ -38261,7 +38309,7 @@
     </row>
     <row r="198" spans="3:21">
       <c r="U198" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="3:21">
@@ -38269,67 +38317,67 @@
         <v>106</v>
       </c>
       <c r="U199" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="3:21">
       <c r="U200" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="201" spans="3:21">
       <c r="U201" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="202" spans="3:21">
       <c r="U202" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="3:21">
       <c r="U203" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="204" spans="3:21">
       <c r="U204" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="3:21">
       <c r="U205" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229" spans="2:4">
       <c r="B229" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="231" spans="2:4">
       <c r="C231" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="233" spans="2:4">
       <c r="D233" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="2:4">
       <c r="D235" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="237" spans="2:4">
       <c r="D237" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="239" spans="2:4">
       <c r="C239" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="241" spans="4:6">
@@ -38337,7 +38385,7 @@
         <v>72</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="4:6">
@@ -38345,7 +38393,7 @@
         <v>71</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="245" spans="4:6">
@@ -38353,7 +38401,7 @@
         <v>73</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="247" spans="4:6">
@@ -38361,7 +38409,7 @@
         <v>74</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="249" spans="4:6">
@@ -38369,7 +38417,7 @@
         <v>75</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -38413,7 +38461,7 @@
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="5:26">
@@ -38424,14 +38472,14 @@
       <c r="V8" s="20"/>
       <c r="X8" s="31"/>
       <c r="Y8" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z8" s="21"/>
     </row>
     <row r="9" spans="5:26">
       <c r="V9" s="20"/>
       <c r="W9" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X9" s="27"/>
       <c r="Y9" s="29"/>
@@ -38446,7 +38494,7 @@
     <row r="11" spans="5:26">
       <c r="V11" s="20"/>
       <c r="W11" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X11" s="27"/>
       <c r="Y11" s="29"/>
@@ -38467,7 +38515,7 @@
     <row r="14" spans="5:26">
       <c r="V14" s="20"/>
       <c r="W14" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X14" s="27"/>
       <c r="Y14" s="14"/>
@@ -38482,7 +38530,7 @@
     <row r="16" spans="5:26">
       <c r="V16" s="20"/>
       <c r="W16" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X16" s="27"/>
       <c r="Y16" s="14"/>
@@ -38507,13 +38555,13 @@
     </row>
     <row r="22" spans="5:26">
       <c r="X22" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y22" s="55"/>
     </row>
     <row r="27" spans="5:26">
       <c r="E27" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="5:26" ht="15.75" thickBot="1"/>
@@ -38523,7 +38571,7 @@
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
       <c r="Z29" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="5:26">
@@ -38534,14 +38582,14 @@
       <c r="V31" s="20"/>
       <c r="X31" s="31"/>
       <c r="Y31" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z31" s="21"/>
     </row>
     <row r="32" spans="5:26">
       <c r="V32" s="20"/>
       <c r="W32" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X32" s="27"/>
       <c r="Y32" s="29"/>
@@ -38556,7 +38604,7 @@
     <row r="34" spans="5:26">
       <c r="V34" s="20"/>
       <c r="W34" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X34" s="27"/>
       <c r="Y34" s="29"/>
@@ -38577,7 +38625,7 @@
     <row r="37" spans="5:26">
       <c r="V37" s="20"/>
       <c r="W37" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X37" s="27"/>
       <c r="Y37" s="14"/>
@@ -38592,7 +38640,7 @@
     <row r="39" spans="5:26">
       <c r="V39" s="20"/>
       <c r="W39" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X39" s="27"/>
       <c r="Y39" s="14"/>
@@ -38617,13 +38665,13 @@
     </row>
     <row r="45" spans="5:26">
       <c r="X45" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y45" s="55"/>
     </row>
     <row r="48" spans="5:26" ht="15.75" thickBot="1">
       <c r="E48" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="5:26">
@@ -38632,7 +38680,7 @@
       <c r="X49" s="18"/>
       <c r="Y49" s="18"/>
       <c r="Z49" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="5:26">
@@ -38641,19 +38689,19 @@
     </row>
     <row r="51" spans="5:26">
       <c r="T51" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V51" s="20"/>
       <c r="X51" s="31"/>
       <c r="Y51" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z51" s="21"/>
     </row>
     <row r="52" spans="5:26">
       <c r="V52" s="20"/>
       <c r="W52" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X52" s="27"/>
       <c r="Y52" s="29"/>
@@ -38667,14 +38715,14 @@
     </row>
     <row r="54" spans="5:26">
       <c r="M54" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V54" s="20"/>
       <c r="W54" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X54" s="27"/>
       <c r="Y54" s="29"/>
@@ -38682,7 +38730,7 @@
     </row>
     <row r="55" spans="5:26">
       <c r="S55" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V55" s="20"/>
       <c r="X55" s="33"/>
@@ -38698,7 +38746,7 @@
     <row r="57" spans="5:26">
       <c r="V57" s="20"/>
       <c r="W57" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X57" s="27"/>
       <c r="Y57" s="14"/>
@@ -38713,7 +38761,7 @@
     <row r="59" spans="5:26">
       <c r="V59" s="20"/>
       <c r="W59" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X59" s="27"/>
       <c r="Y59" s="14"/>
@@ -38731,7 +38779,7 @@
     </row>
     <row r="62" spans="5:26" ht="15.75" thickBot="1">
       <c r="F62" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="V62" s="23"/>
       <c r="W62" s="24"/>
@@ -38741,29 +38789,29 @@
     </row>
     <row r="64" spans="5:26">
       <c r="E64" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="24:25">
       <c r="X65" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y65" s="55"/>
     </row>
     <row r="84" spans="5:33">
       <c r="E84" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="5:33">
       <c r="F86" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="5:33" ht="15.75" thickBot="1"/>
     <row r="88" spans="5:33">
       <c r="AC88" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AD88" s="18"/>
       <c r="AE88" s="18"/>
@@ -38778,14 +38826,14 @@
       <c r="AC90" s="20"/>
       <c r="AE90" s="34"/>
       <c r="AF90" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG90" s="21"/>
     </row>
     <row r="91" spans="5:33">
       <c r="AC91" s="20"/>
       <c r="AD91" s="44" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AE91" s="43"/>
       <c r="AF91" s="14"/>
@@ -38807,7 +38855,7 @@
     </row>
     <row r="94" spans="5:33">
       <c r="Z94" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AC94" s="20"/>
       <c r="AE94" s="35"/>
@@ -38816,7 +38864,7 @@
     </row>
     <row r="95" spans="5:33">
       <c r="Z95" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC95" s="20"/>
       <c r="AE95" s="34"/>
@@ -38826,7 +38874,7 @@
     <row r="96" spans="5:33">
       <c r="AC96" s="20"/>
       <c r="AD96" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE96" s="27"/>
       <c r="AF96" s="14"/>
@@ -38864,58 +38912,58 @@
     </row>
     <row r="104" spans="26:33">
       <c r="AE104" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF104" s="55"/>
     </row>
     <row r="108" spans="26:33">
       <c r="Z108" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="26:33">
       <c r="Z110" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="26:33">
       <c r="Z112" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="5:6">
       <c r="E123" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="5:6">
       <c r="F125" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="5:6">
       <c r="F127" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="7:7">
       <c r="G129" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="7:8">
       <c r="G155" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="7:8">
       <c r="H157" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -38934,15 +38982,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468946F-A6D8-48A6-8C26-34C27B46649A}">
   <dimension ref="A2:AY180"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="E72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="28" width="9.140625" style="1"/>
+    <col min="14" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="11.140625" style="1" customWidth="1"/>
+    <col min="18" max="28" width="9.140625" style="1"/>
     <col min="29" max="29" width="9.140625" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -38950,6 +39000,9 @@
     <row r="2" spans="1:29">
       <c r="B2" s="11" t="s">
         <v>199</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>115</v>
@@ -38978,6 +39031,9 @@
       <c r="B4" s="11" t="s">
         <v>200</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
         <v>6</v>
@@ -39010,6 +39066,9 @@
       <c r="B6" s="11" t="s">
         <v>201</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
         <v>9</v>
@@ -39039,7 +39098,10 @@
     </row>
     <row r="8" spans="1:29">
       <c r="B8" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -39055,7 +39117,10 @@
     </row>
     <row r="10" spans="1:29">
       <c r="B10" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -39065,7 +39130,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="B12" s="1" t="s">
-        <v>217</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -39121,11 +39186,9 @@
         <v>202</v>
       </c>
       <c r="AD17" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="9:51">
-      <c r="AY18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY17" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -39134,7 +39197,7 @@
         <v>195</v>
       </c>
       <c r="AE19" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="9:51">
@@ -39142,10 +39205,10 @@
         <v>152</v>
       </c>
       <c r="AF21" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM21" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="AM21" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="23" spans="9:51">
@@ -39178,7 +39241,7 @@
     </row>
     <row r="38" spans="10:38">
       <c r="AE38" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="10:38">
@@ -39188,14 +39251,14 @@
     </row>
     <row r="40" spans="10:38">
       <c r="AF40" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="10:38">
       <c r="P42" s="3"/>
       <c r="S42" s="3"/>
       <c r="AF42" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="10:38">
@@ -39244,7 +39307,7 @@
         <v>93</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="10:38">
@@ -39271,37 +39334,37 @@
         <v>198</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="10:33">
       <c r="AG58" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="10:33">
       <c r="AG59" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="10:33">
       <c r="AG63" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="9:33">
       <c r="AF67" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="9:33">
       <c r="AG69" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="9:33">
       <c r="AG71" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="9:33">
@@ -39321,7 +39384,7 @@
     </row>
     <row r="84" spans="10:31">
       <c r="AE84" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="10:31">
@@ -39334,7 +39397,7 @@
     </row>
     <row r="86" spans="10:31">
       <c r="AE86" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="10:11">
@@ -39521,10 +39584,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34AB0AF-5F6E-495D-A7A0-8B2ACC54B75F}">
-  <dimension ref="D4:AW139"/>
+  <dimension ref="D3:AW139"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+    <sheetView topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39532,124 +39595,129 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:37">
-      <c r="D4" s="8" t="s">
-        <v>265</v>
+    <row r="3" spans="4:37">
+      <c r="D3" s="8" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="4:37">
       <c r="E5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="4:37">
       <c r="F7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="AA7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="F55" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="G60" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="G62" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="G64" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="6:16">
       <c r="F66" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="6:16">
       <c r="G68" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="6:16">
       <c r="G70" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="6:16">
       <c r="F72" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="5:20">
       <c r="E89" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="5:20">
       <c r="F91" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="5:20">
       <c r="G94" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="T94" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="T94" s="1" t="s">
+    </row>
+    <row r="131" spans="4:49">
+      <c r="D131" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="4:49">
+      <c r="E134" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136" spans="4:49">
+      <c r="F136" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="134" spans="5:49">
-      <c r="E134" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="136" spans="5:49">
-      <c r="F136" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="139" spans="5:49">
+    <row r="139" spans="4:49">
       <c r="G139" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC139" t="s">
         <v>270</v>
       </c>
-      <c r="R139" s="1" t="s">
+      <c r="AM139" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AC139" t="s">
+      <c r="AW139" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="AM139" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW139" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -39662,8 +39730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D9CD6D-1EAA-4EE6-897F-5DE4D2098EAD}">
   <dimension ref="I2:AI247"/>
   <sheetViews>
-    <sheetView topLeftCell="F197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J156" sqref="J156"/>
+    <sheetView topLeftCell="D201" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I226" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39682,187 +39750,187 @@
     </row>
     <row r="4" spans="9:11">
       <c r="J4" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="9:11">
       <c r="K6" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="10:23">
       <c r="K21" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="10:23">
       <c r="J23" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="10:23">
       <c r="K25" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="10:23">
       <c r="J27" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="10:23">
       <c r="V28" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="10:23">
       <c r="K29" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="10:23">
       <c r="W30" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="10:23">
       <c r="L31" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="10:23">
       <c r="L32" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W32" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="33" spans="10:12">
       <c r="L33" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="10:12">
       <c r="K42" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="10:12">
       <c r="J46" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="10:12">
       <c r="K48" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="11:23">
       <c r="K50" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="11:23">
       <c r="K52" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="11:23">
       <c r="K55" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="11:23">
       <c r="L57" s="60" t="s">
-        <v>374</v>
-      </c>
-      <c r="M57" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="N57" s="62"/>
+        <v>370</v>
+      </c>
+      <c r="M57" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="N57" s="65"/>
       <c r="O57" s="59" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P57" s="59"/>
       <c r="Q57" s="59"/>
       <c r="R57" s="59"/>
       <c r="S57" s="59"/>
       <c r="T57" s="59"/>
-      <c r="U57" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="V57" s="69"/>
-      <c r="W57" s="69"/>
+      <c r="U57" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="V57" s="63"/>
+      <c r="W57" s="63"/>
     </row>
     <row r="58" spans="11:23">
       <c r="L58" s="60"/>
-      <c r="M58" s="63" t="s">
+      <c r="M58" s="66" t="s">
         <v>44</v>
       </c>
       <c r="N58" s="58"/>
       <c r="O58" s="60" t="s">
-        <v>379</v>
-      </c>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
-      <c r="S58" s="67"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="69"/>
-      <c r="W58" s="69"/>
+        <v>375</v>
+      </c>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="61"/>
+      <c r="R58" s="61"/>
+      <c r="S58" s="61"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="63"/>
+      <c r="V58" s="63"/>
+      <c r="W58" s="63"/>
     </row>
     <row r="59" spans="11:23">
       <c r="L59" s="60"/>
-      <c r="M59" s="64" t="s">
+      <c r="M59" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="N59" s="65"/>
+      <c r="N59" s="68"/>
       <c r="O59" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="67"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="69"/>
-      <c r="V59" s="69"/>
-      <c r="W59" s="69"/>
+        <v>374</v>
+      </c>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="62"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
     </row>
     <row r="60" spans="11:23">
       <c r="L60" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="M60" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="N60" s="66"/>
+        <v>371</v>
+      </c>
+      <c r="M60" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="N60" s="69"/>
       <c r="O60" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="68"/>
+        <v>376</v>
+      </c>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="62"/>
       <c r="U60" s="59" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="V60" s="59"/>
       <c r="W60" s="59"/>
     </row>
     <row r="61" spans="11:23">
       <c r="L61" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M61" s="59" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N61" s="59"/>
       <c r="O61" s="59" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P61" s="59"/>
       <c r="Q61" s="59"/>
@@ -39870,7 +39938,7 @@
       <c r="S61" s="59"/>
       <c r="T61" s="59"/>
       <c r="U61" s="59" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="V61" s="59"/>
       <c r="W61" s="59"/>
@@ -40332,112 +40400,112 @@
     </row>
     <row r="102" spans="10:21">
       <c r="J102" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="10:21">
       <c r="K104" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="10:21">
       <c r="K106" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="10:21">
       <c r="K108" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="10:21">
       <c r="K111" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="10:11">
       <c r="J126" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="10:11">
       <c r="K128" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="130" spans="11:11">
       <c r="K130" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="132" spans="11:11">
       <c r="K132" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="153" spans="10:10">
       <c r="J153" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="155" spans="10:10">
       <c r="J155" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="188" spans="9:10">
       <c r="I188" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="9:10">
       <c r="J190" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="192" spans="9:10">
       <c r="J192" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193" spans="11:30">
       <c r="K193" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AD193" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="10:30">
       <c r="J213" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="216" spans="10:30">
       <c r="K216" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AD216" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="237" spans="14:35">
       <c r="N237" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="X237" s="1" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="AI237" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="238" spans="14:35">
       <c r="X238" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" spans="29:29">
@@ -40445,6 +40513,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
     <mergeCell ref="O61:T61"/>
     <mergeCell ref="O58:T58"/>
     <mergeCell ref="O59:T59"/>
@@ -40453,12 +40527,6 @@
     <mergeCell ref="U61:W61"/>
     <mergeCell ref="U60:W60"/>
     <mergeCell ref="O57:T57"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40481,7 +40549,7 @@
   <sheetData>
     <row r="4" spans="3:8">
       <c r="C4" s="53" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -40500,7 +40568,7 @@
     <row r="6" spans="3:8">
       <c r="C6" s="53"/>
       <c r="D6" s="53" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
@@ -40543,7 +40611,7 @@
     </row>
     <row r="7" spans="3:17">
       <c r="C7" s="53" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -40578,7 +40646,7 @@
     <row r="9" spans="3:17">
       <c r="C9" s="53"/>
       <c r="D9" s="53" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
@@ -40613,7 +40681,7 @@
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -40647,7 +40715,7 @@
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
       <c r="E13" s="53" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -40678,7 +40746,7 @@
     <row r="15" spans="3:17">
       <c r="C15" s="53"/>
       <c r="D15" s="53" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="53"/>
@@ -40708,7 +40776,7 @@
     <row r="17" spans="3:14">
       <c r="C17" s="53"/>
       <c r="D17" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
